--- a/database/industries/folad/fejahan/product/quarterly_seprated.xlsx
+++ b/database/industries/folad/fejahan/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fejahan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fejahan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86A104C-BF6A-45D3-9889-052FFE47F252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0D5570-63CE-43C8-9394-07C5A133D457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="59">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -660,16 +675,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I120"/>
+  <dimension ref="B1:N120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -678,8 +693,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -690,8 +710,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -702,8 +727,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -712,8 +742,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -724,8 +759,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -736,8 +776,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -746,8 +791,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -768,8 +818,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -778,10 +843,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -790,248 +860,403 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>479</v>
+      </c>
+      <c r="F11" s="11">
+        <v>6246</v>
+      </c>
+      <c r="G11" s="11">
+        <v>-784</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1484</v>
+      </c>
+      <c r="J11" s="11">
         <v>4277</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11">
+        <v>20198</v>
+      </c>
+      <c r="L11" s="11">
         <v>1942</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>14911</v>
       </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13">
-        <v>0</v>
+      <c r="E12" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G12" s="13">
         <v>0</v>
       </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>61893</v>
+      </c>
+      <c r="F13" s="11">
+        <v>110228</v>
+      </c>
+      <c r="G13" s="11">
+        <v>81480</v>
+      </c>
+      <c r="H13" s="11">
+        <v>65037</v>
+      </c>
+      <c r="I13" s="11">
+        <v>59209</v>
+      </c>
+      <c r="J13" s="11">
         <v>72594</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11">
+        <v>134993</v>
+      </c>
+      <c r="L13" s="11">
         <v>68999</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>120726</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>97183</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>79522</v>
+      </c>
+      <c r="F15" s="11">
+        <v>76855</v>
+      </c>
+      <c r="G15" s="11">
+        <v>66749</v>
+      </c>
+      <c r="H15" s="11">
+        <v>45923</v>
+      </c>
+      <c r="I15" s="11">
+        <v>55515</v>
+      </c>
+      <c r="J15" s="11">
         <v>71286</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="K15" s="11">
+        <v>61774</v>
+      </c>
+      <c r="L15" s="11">
         <v>73565</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>90062</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>67446</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="13">
+      <c r="E16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="13">
+        <v>823</v>
+      </c>
+      <c r="H16" s="13">
+        <v>743</v>
+      </c>
+      <c r="I16" s="13">
+        <v>501</v>
+      </c>
+      <c r="J16" s="13">
         <v>1386</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="13">
+      <c r="K16" s="13">
+        <v>809</v>
+      </c>
+      <c r="L16" s="13">
         <v>373</v>
       </c>
-      <c r="H16" s="13">
+      <c r="M16" s="13">
         <v>1124</v>
       </c>
-      <c r="I16" s="13">
+      <c r="N16" s="13">
         <v>1382</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
         <v>0</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>13</v>
+      <c r="F17" s="11">
+        <v>0</v>
       </c>
       <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1868</v>
+      </c>
+      <c r="L17" s="11">
         <v>9178</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>2305</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>1302</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="13">
-        <v>0</v>
+      <c r="E18" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11">
+      <c r="E19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="11">
+        <v>12109</v>
+      </c>
+      <c r="J19" s="11">
         <v>11864</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
+      <c r="K19" s="11">
+        <v>26</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
         <v>9959</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>5008</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15">
+        <v>141894</v>
+      </c>
+      <c r="F20" s="15">
+        <v>193329</v>
+      </c>
+      <c r="G20" s="15">
+        <v>148268</v>
+      </c>
+      <c r="H20" s="15">
+        <v>111703</v>
+      </c>
+      <c r="I20" s="15">
+        <v>128818</v>
+      </c>
+      <c r="J20" s="15">
         <v>161407</v>
       </c>
-      <c r="F20" s="15">
-        <v>0</v>
-      </c>
-      <c r="G20" s="15">
+      <c r="K20" s="15">
+        <v>219668</v>
+      </c>
+      <c r="L20" s="15">
         <v>154057</v>
       </c>
-      <c r="H20" s="15">
+      <c r="M20" s="15">
         <v>239087</v>
       </c>
-      <c r="I20" s="15">
+      <c r="N20" s="15">
         <v>172321</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1040,80 +1265,130 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>13</v>
+      <c r="E22" s="11">
+        <v>0</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>42026</v>
+      </c>
+      <c r="F23" s="13">
+        <v>59938</v>
+      </c>
+      <c r="G23" s="13">
+        <v>29823</v>
+      </c>
+      <c r="H23" s="13">
+        <v>119792</v>
+      </c>
+      <c r="I23" s="13">
+        <v>29974</v>
+      </c>
+      <c r="J23" s="13">
         <v>29999</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="13">
+      <c r="K23" s="13">
+        <v>59909</v>
+      </c>
+      <c r="L23" s="13">
         <v>30041</v>
       </c>
-      <c r="H23" s="13">
-        <v>0</v>
-      </c>
-      <c r="I23" s="13">
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+      <c r="N23" s="13">
         <v>29977</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17">
+        <v>42026</v>
+      </c>
+      <c r="F24" s="17">
+        <v>59938</v>
+      </c>
+      <c r="G24" s="17">
+        <v>29823</v>
+      </c>
+      <c r="H24" s="17">
+        <v>119792</v>
+      </c>
+      <c r="I24" s="17">
+        <v>29974</v>
+      </c>
+      <c r="J24" s="17">
         <v>29999</v>
       </c>
-      <c r="F24" s="17">
-        <v>0</v>
-      </c>
-      <c r="G24" s="17">
+      <c r="K24" s="17">
+        <v>59909</v>
+      </c>
+      <c r="L24" s="17">
         <v>30041</v>
       </c>
-      <c r="H24" s="17">
-        <v>0</v>
-      </c>
-      <c r="I24" s="17">
+      <c r="M24" s="17">
+        <v>0</v>
+      </c>
+      <c r="N24" s="17">
         <v>29977</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -1122,10 +1397,15 @@
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -1144,76 +1424,136 @@
       <c r="I26" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="17">
+        <v>0</v>
+      </c>
+      <c r="K26" s="17">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="17">
+        <v>0</v>
+      </c>
+      <c r="N26" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G28" s="17">
         <v>0</v>
       </c>
-      <c r="H28" s="17">
-        <v>0</v>
+      <c r="H28" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I28" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="17">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="17">
+        <v>0</v>
+      </c>
+      <c r="N28" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15">
+        <v>183920</v>
+      </c>
+      <c r="F29" s="15">
+        <v>253267</v>
+      </c>
+      <c r="G29" s="15">
+        <v>178091</v>
+      </c>
+      <c r="H29" s="15">
+        <v>231495</v>
+      </c>
+      <c r="I29" s="15">
+        <v>158792</v>
+      </c>
+      <c r="J29" s="15">
         <v>191406</v>
       </c>
-      <c r="F29" s="15">
-        <v>0</v>
-      </c>
-      <c r="G29" s="15">
+      <c r="K29" s="15">
+        <v>279577</v>
+      </c>
+      <c r="L29" s="15">
         <v>184098</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>239087</v>
       </c>
-      <c r="I29" s="15">
+      <c r="N29" s="15">
         <v>202298</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1222,8 +1562,13 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1232,8 +1577,13 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1242,10 +1592,15 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1264,8 +1619,23 @@
       <c r="I33" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1274,10 +1644,15 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1286,248 +1661,403 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
+        <v>392</v>
+      </c>
+      <c r="F36" s="11">
+        <v>45576</v>
+      </c>
+      <c r="G36" s="11">
+        <v>-22873</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="11">
+        <v>742</v>
+      </c>
+      <c r="J36" s="11">
         <v>53186</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="11">
+      <c r="K36" s="11">
+        <v>373928</v>
+      </c>
+      <c r="L36" s="11">
         <v>20645</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>104970</v>
       </c>
-      <c r="I36" s="11">
+      <c r="N36" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="13">
-        <v>0</v>
+      <c r="E37" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G37" s="13">
         <v>0</v>
       </c>
-      <c r="H37" s="13">
-        <v>0</v>
-      </c>
-      <c r="I37" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="13">
+        <v>0</v>
+      </c>
+      <c r="K37" s="13">
+        <v>0</v>
+      </c>
+      <c r="L37" s="13">
+        <v>0</v>
+      </c>
+      <c r="M37" s="13">
+        <v>0</v>
+      </c>
+      <c r="N37" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
+        <v>4740217</v>
+      </c>
+      <c r="F38" s="11">
+        <v>11132198</v>
+      </c>
+      <c r="G38" s="11">
+        <v>8310490</v>
+      </c>
+      <c r="H38" s="11">
+        <v>7478486</v>
+      </c>
+      <c r="I38" s="11">
+        <v>8175383</v>
+      </c>
+      <c r="J38" s="11">
         <v>9576793</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="11">
+      <c r="K38" s="11">
+        <v>17373621</v>
+      </c>
+      <c r="L38" s="11">
         <v>9909096</v>
       </c>
-      <c r="H38" s="11">
+      <c r="M38" s="11">
         <v>15866316</v>
       </c>
-      <c r="I38" s="11">
+      <c r="N38" s="11">
         <v>12864681</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="13">
-        <v>0</v>
-      </c>
-      <c r="H39" s="13">
-        <v>0</v>
-      </c>
-      <c r="I39" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="13">
+        <v>0</v>
+      </c>
+      <c r="L39" s="13">
+        <v>0</v>
+      </c>
+      <c r="M39" s="13">
+        <v>0</v>
+      </c>
+      <c r="N39" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
+        <v>6153300</v>
+      </c>
+      <c r="F40" s="11">
+        <v>8175207</v>
+      </c>
+      <c r="G40" s="11">
+        <v>7405508</v>
+      </c>
+      <c r="H40" s="11">
+        <v>5639537</v>
+      </c>
+      <c r="I40" s="11">
+        <v>8182033</v>
+      </c>
+      <c r="J40" s="11">
         <v>10169591</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="11">
+      <c r="K40" s="11">
+        <v>8844025</v>
+      </c>
+      <c r="L40" s="11">
         <v>11492023</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>13775619</v>
       </c>
-      <c r="I40" s="11">
+      <c r="N40" s="11">
         <v>10096381</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D41" s="13"/>
-      <c r="E41" s="13">
+      <c r="E41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="13">
+        <v>40823</v>
+      </c>
+      <c r="H41" s="13">
+        <v>44358</v>
+      </c>
+      <c r="I41" s="13">
+        <v>36233</v>
+      </c>
+      <c r="J41" s="13">
         <v>93762</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="13">
+      <c r="K41" s="13">
+        <v>32339</v>
+      </c>
+      <c r="L41" s="13">
         <v>22664</v>
       </c>
-      <c r="H41" s="13">
+      <c r="M41" s="13">
         <v>109022</v>
       </c>
-      <c r="I41" s="13">
+      <c r="N41" s="13">
         <v>110316</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
         <v>0</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>13</v>
+      <c r="F42" s="11">
+        <v>-1</v>
       </c>
       <c r="G42" s="11">
+        <v>1</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>67295</v>
+      </c>
+      <c r="L42" s="11">
         <v>463830</v>
       </c>
-      <c r="H42" s="11">
+      <c r="M42" s="11">
         <v>133592</v>
       </c>
-      <c r="I42" s="11">
+      <c r="N42" s="11">
         <v>75457</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D43" s="13"/>
-      <c r="E43" s="13">
-        <v>0</v>
+      <c r="E43" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="G43" s="13">
+        <v>0</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I43" s="13">
+        <v>0</v>
+      </c>
+      <c r="J43" s="13">
+        <v>0</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="11">
+      <c r="E44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="11">
+        <v>412911</v>
+      </c>
+      <c r="J44" s="11">
         <v>404575</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="11">
-        <v>0</v>
-      </c>
-      <c r="H44" s="11">
+      <c r="K44" s="11">
+        <v>887</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
         <v>445178</v>
       </c>
-      <c r="I44" s="11">
+      <c r="N44" s="11">
         <v>226807</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
+        <v>10893909</v>
+      </c>
+      <c r="F45" s="15">
+        <v>19352980</v>
+      </c>
+      <c r="G45" s="15">
+        <v>15733949</v>
+      </c>
+      <c r="H45" s="15">
+        <v>13162381</v>
+      </c>
+      <c r="I45" s="15">
+        <v>16807302</v>
+      </c>
+      <c r="J45" s="15">
         <v>20297907</v>
       </c>
-      <c r="F45" s="15">
-        <v>0</v>
-      </c>
-      <c r="G45" s="15">
+      <c r="K45" s="15">
+        <v>26692095</v>
+      </c>
+      <c r="L45" s="15">
         <v>21908258</v>
       </c>
-      <c r="H45" s="15">
+      <c r="M45" s="15">
         <v>30434697</v>
       </c>
-      <c r="I45" s="15">
+      <c r="N45" s="15">
         <v>23373641</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -1536,80 +2066,130 @@
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>13</v>
+      <c r="E47" s="11">
+        <v>0</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13">
+        <v>3834785</v>
+      </c>
+      <c r="F48" s="13">
+        <v>6228129</v>
+      </c>
+      <c r="G48" s="13">
+        <v>3557184</v>
+      </c>
+      <c r="H48" s="13">
+        <v>14960780</v>
+      </c>
+      <c r="I48" s="13">
+        <v>4291250</v>
+      </c>
+      <c r="J48" s="13">
         <v>4320168</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="13">
+      <c r="K48" s="13">
+        <v>7950809</v>
+      </c>
+      <c r="L48" s="13">
         <v>4159803</v>
       </c>
-      <c r="H48" s="13">
-        <v>0</v>
-      </c>
-      <c r="I48" s="13">
+      <c r="M48" s="13">
+        <v>0</v>
+      </c>
+      <c r="N48" s="13">
         <v>4247964</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17">
+        <v>3834785</v>
+      </c>
+      <c r="F49" s="17">
+        <v>6228129</v>
+      </c>
+      <c r="G49" s="17">
+        <v>3557184</v>
+      </c>
+      <c r="H49" s="17">
+        <v>14960780</v>
+      </c>
+      <c r="I49" s="17">
+        <v>4291250</v>
+      </c>
+      <c r="J49" s="17">
         <v>4320168</v>
       </c>
-      <c r="F49" s="17">
-        <v>0</v>
-      </c>
-      <c r="G49" s="17">
+      <c r="K49" s="17">
+        <v>7950809</v>
+      </c>
+      <c r="L49" s="17">
         <v>4159803</v>
       </c>
-      <c r="H49" s="17">
-        <v>0</v>
-      </c>
-      <c r="I49" s="17">
+      <c r="M49" s="17">
+        <v>0</v>
+      </c>
+      <c r="N49" s="17">
         <v>4247964</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
@@ -1618,10 +2198,15 @@
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -1640,78 +2225,138 @@
       <c r="I51" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="17">
+        <v>0</v>
+      </c>
+      <c r="K51" s="17">
+        <v>0</v>
+      </c>
+      <c r="L51" s="17">
+        <v>0</v>
+      </c>
+      <c r="M51" s="17">
+        <v>0</v>
+      </c>
+      <c r="N51" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="G52" s="15">
+        <v>0</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M52" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N52" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G53" s="17">
         <v>0</v>
       </c>
-      <c r="H53" s="17">
-        <v>0</v>
+      <c r="H53" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I53" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="17">
+        <v>0</v>
+      </c>
+      <c r="L53" s="17">
+        <v>0</v>
+      </c>
+      <c r="M53" s="17">
+        <v>0</v>
+      </c>
+      <c r="N53" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15">
+        <v>14728694</v>
+      </c>
+      <c r="F54" s="15">
+        <v>25581109</v>
+      </c>
+      <c r="G54" s="15">
+        <v>19291133</v>
+      </c>
+      <c r="H54" s="15">
+        <v>28123161</v>
+      </c>
+      <c r="I54" s="15">
+        <v>21098552</v>
+      </c>
+      <c r="J54" s="15">
         <v>24618075</v>
       </c>
-      <c r="F54" s="15">
-        <v>0</v>
-      </c>
-      <c r="G54" s="15">
+      <c r="K54" s="15">
+        <v>34642904</v>
+      </c>
+      <c r="L54" s="15">
         <v>26068061</v>
       </c>
-      <c r="H54" s="15">
+      <c r="M54" s="15">
         <v>30434697</v>
       </c>
-      <c r="I54" s="15">
+      <c r="N54" s="15">
         <v>27621605</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1720,8 +2365,13 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1730,8 +2380,13 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1740,10 +2395,15 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -1762,8 +2422,23 @@
       <c r="I58" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1772,10 +2447,15 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -1784,226 +2464,366 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
+        <v>818372</v>
+      </c>
+      <c r="F61" s="11">
+        <v>7296830</v>
+      </c>
+      <c r="G61" s="11">
+        <v>1653230</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="11">
+        <v>500000</v>
+      </c>
+      <c r="J61" s="11">
         <v>12435352</v>
       </c>
-      <c r="F61" s="11">
+      <c r="K61" s="11">
         <v>18513120</v>
       </c>
-      <c r="G61" s="11">
+      <c r="L61" s="11">
         <v>10630793</v>
       </c>
-      <c r="H61" s="11">
+      <c r="M61" s="11">
         <v>7039769</v>
       </c>
-      <c r="I61" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N61" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N62" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
+        <v>76587288</v>
+      </c>
+      <c r="F63" s="11">
+        <v>100992470</v>
+      </c>
+      <c r="G63" s="11">
+        <v>82149964</v>
+      </c>
+      <c r="H63" s="11">
+        <v>114988176</v>
+      </c>
+      <c r="I63" s="11">
+        <v>138076694</v>
+      </c>
+      <c r="J63" s="11">
         <v>131922652</v>
       </c>
-      <c r="F63" s="11">
+      <c r="K63" s="11">
         <v>128700162</v>
       </c>
-      <c r="G63" s="11">
+      <c r="L63" s="11">
         <v>143612168</v>
       </c>
-      <c r="H63" s="11">
+      <c r="M63" s="11">
         <v>131424184</v>
       </c>
-      <c r="I63" s="11">
+      <c r="N63" s="11">
         <v>132375837</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N64" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
+        <v>77378587</v>
+      </c>
+      <c r="F65" s="11">
+        <v>106371830</v>
+      </c>
+      <c r="G65" s="11">
+        <v>89343732</v>
+      </c>
+      <c r="H65" s="11">
+        <v>122804194</v>
+      </c>
+      <c r="I65" s="11">
+        <v>147384184</v>
+      </c>
+      <c r="J65" s="11">
         <v>142659021</v>
       </c>
-      <c r="F65" s="11">
+      <c r="K65" s="11">
         <v>143167433</v>
       </c>
-      <c r="G65" s="11">
+      <c r="L65" s="11">
         <v>156215904</v>
       </c>
-      <c r="H65" s="11">
+      <c r="M65" s="11">
         <v>152957063</v>
       </c>
-      <c r="I65" s="11">
+      <c r="N65" s="11">
         <v>149695771</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D66" s="13"/>
-      <c r="E66" s="13">
+      <c r="E66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="13">
+        <v>49602673</v>
+      </c>
+      <c r="H66" s="13">
+        <v>59701211</v>
+      </c>
+      <c r="I66" s="13">
+        <v>72323353</v>
+      </c>
+      <c r="J66" s="13">
         <v>67649351</v>
       </c>
-      <c r="F66" s="13">
+      <c r="K66" s="13">
         <v>39974042</v>
       </c>
-      <c r="G66" s="13">
+      <c r="L66" s="13">
         <v>60761394</v>
       </c>
-      <c r="H66" s="13">
+      <c r="M66" s="13">
         <v>96994662</v>
       </c>
-      <c r="I66" s="13">
+      <c r="N66" s="13">
         <v>79823444</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="11">
+        <v>18</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="11">
+        <v>16200068</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="11">
         <v>36025161</v>
       </c>
-      <c r="G67" s="11">
+      <c r="L67" s="11">
         <v>50537154</v>
       </c>
-      <c r="H67" s="11">
+      <c r="M67" s="11">
         <v>57957484</v>
       </c>
-      <c r="I67" s="11">
+      <c r="N67" s="11">
         <v>57954685</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N68" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11">
+      <c r="E69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="11">
+        <v>34099513</v>
+      </c>
+      <c r="J69" s="11">
         <v>34101062</v>
       </c>
-      <c r="F69" s="11">
+      <c r="K69" s="11">
         <v>34115385</v>
       </c>
-      <c r="G69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="11">
+      <c r="L69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="11">
         <v>44701074</v>
       </c>
-      <c r="I69" s="11">
+      <c r="N69" s="11">
         <v>45288938</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -2012,56 +2832,91 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
+        <v>91247918</v>
+      </c>
+      <c r="F72" s="13">
+        <v>103909523</v>
+      </c>
+      <c r="G72" s="13">
+        <v>103349329</v>
+      </c>
+      <c r="H72" s="13">
+        <v>124889642</v>
+      </c>
+      <c r="I72" s="13">
+        <v>143165744</v>
+      </c>
+      <c r="J72" s="13">
         <v>144010400</v>
       </c>
-      <c r="F72" s="13">
+      <c r="K72" s="13">
         <v>132714767</v>
       </c>
-      <c r="G72" s="13">
+      <c r="L72" s="13">
         <v>138470857</v>
       </c>
-      <c r="H72" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="13">
+      <c r="M72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N72" s="13">
         <v>141707442</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2070,8 +2925,13 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2080,8 +2940,13 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2090,10 +2955,15 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -2112,8 +2982,23 @@
       <c r="I76" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2122,10 +3007,15 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -2134,248 +3024,403 @@
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
+        <v>-16</v>
+      </c>
+      <c r="F79" s="11">
+        <v>0</v>
+      </c>
+      <c r="G79" s="11">
+        <v>-12344</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="11">
+        <v>-1</v>
+      </c>
+      <c r="J79" s="11">
         <v>-12711</v>
       </c>
-      <c r="F79" s="11">
+      <c r="K79" s="11">
         <v>-98942</v>
       </c>
-      <c r="G79" s="11">
+      <c r="L79" s="11">
         <v>-7737</v>
       </c>
-      <c r="H79" s="11">
+      <c r="M79" s="11">
         <v>-40175</v>
       </c>
-      <c r="I79" s="11">
+      <c r="N79" s="11">
         <v>-88</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D80" s="13"/>
-      <c r="E80" s="13">
-        <v>0</v>
-      </c>
-      <c r="F80" s="13">
-        <v>0</v>
+      <c r="E80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G80" s="13">
         <v>0</v>
       </c>
-      <c r="H80" s="13">
-        <v>0</v>
-      </c>
-      <c r="I80" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="13">
+        <v>0</v>
+      </c>
+      <c r="K80" s="13">
+        <v>0</v>
+      </c>
+      <c r="L80" s="13">
+        <v>0</v>
+      </c>
+      <c r="M80" s="13">
+        <v>0</v>
+      </c>
+      <c r="N80" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
+        <v>-3444842</v>
+      </c>
+      <c r="F81" s="11">
+        <v>-6700696</v>
+      </c>
+      <c r="G81" s="11">
+        <v>-6420159</v>
+      </c>
+      <c r="H81" s="11">
+        <v>-5702904</v>
+      </c>
+      <c r="I81" s="11">
+        <v>-6080307</v>
+      </c>
+      <c r="J81" s="11">
         <v>-8078840</v>
       </c>
-      <c r="F81" s="11">
+      <c r="K81" s="11">
         <v>-16284365</v>
       </c>
-      <c r="G81" s="11">
+      <c r="L81" s="11">
         <v>-8502659</v>
       </c>
-      <c r="H81" s="11">
+      <c r="M81" s="11">
         <v>-13802031</v>
       </c>
-      <c r="I81" s="11">
+      <c r="N81" s="11">
         <v>-10804033</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="13">
-        <v>0</v>
-      </c>
-      <c r="G82" s="13">
-        <v>0</v>
-      </c>
-      <c r="H82" s="13">
-        <v>0</v>
-      </c>
-      <c r="I82" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82" s="13">
+        <v>0</v>
+      </c>
+      <c r="L82" s="13">
+        <v>0</v>
+      </c>
+      <c r="M82" s="13">
+        <v>0</v>
+      </c>
+      <c r="N82" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
+        <v>-4155075</v>
+      </c>
+      <c r="F83" s="11">
+        <v>-4649653</v>
+      </c>
+      <c r="G83" s="11">
+        <v>-5871414</v>
+      </c>
+      <c r="H83" s="11">
+        <v>-3774933</v>
+      </c>
+      <c r="I83" s="11">
+        <v>-5780324</v>
+      </c>
+      <c r="J83" s="11">
         <v>-8082106</v>
       </c>
-      <c r="F83" s="11">
+      <c r="K83" s="11">
         <v>-8361181</v>
       </c>
-      <c r="G83" s="11">
+      <c r="L83" s="11">
         <v>-8996265</v>
       </c>
-      <c r="H83" s="11">
+      <c r="M83" s="11">
         <v>-10957522</v>
       </c>
-      <c r="I83" s="11">
+      <c r="N83" s="11">
         <v>-8167720</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D84" s="13"/>
-      <c r="E84" s="13">
+      <c r="E84" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" s="13">
+        <v>-8523</v>
+      </c>
+      <c r="H84" s="13">
+        <v>-4865</v>
+      </c>
+      <c r="I84" s="13">
+        <v>-10148</v>
+      </c>
+      <c r="J84" s="13">
         <v>-22186</v>
       </c>
-      <c r="F84" s="13">
+      <c r="K84" s="13">
         <v>-22231</v>
       </c>
-      <c r="G84" s="13">
+      <c r="L84" s="13">
         <v>-4652</v>
       </c>
-      <c r="H84" s="13">
+      <c r="M84" s="13">
         <v>-17489</v>
       </c>
-      <c r="I84" s="13">
+      <c r="N84" s="13">
         <v>-22315</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
         <v>0</v>
       </c>
       <c r="F85" s="11">
+        <v>1</v>
+      </c>
+      <c r="G85" s="11">
+        <v>-1</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="11">
+        <v>0</v>
+      </c>
+      <c r="J85" s="11">
+        <v>0</v>
+      </c>
+      <c r="K85" s="11">
         <v>-59564</v>
       </c>
-      <c r="G85" s="11">
+      <c r="L85" s="11">
         <v>-306416</v>
       </c>
-      <c r="H85" s="11">
+      <c r="M85" s="11">
         <v>-93743</v>
       </c>
-      <c r="I85" s="11">
+      <c r="N85" s="11">
         <v>-69658</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D86" s="13"/>
-      <c r="E86" s="13">
-        <v>0</v>
+      <c r="E86" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="G86" s="13">
+        <v>0</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I86" s="13">
+        <v>0</v>
+      </c>
+      <c r="J86" s="13">
+        <v>0</v>
+      </c>
+      <c r="K86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N86" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D87" s="11"/>
-      <c r="E87" s="11">
+      <c r="E87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" s="11">
+        <v>-491842</v>
+      </c>
+      <c r="J87" s="11">
         <v>-600563</v>
       </c>
-      <c r="F87" s="11">
+      <c r="K87" s="11">
         <v>35474</v>
       </c>
-      <c r="G87" s="11">
-        <v>0</v>
-      </c>
-      <c r="H87" s="11">
+      <c r="L87" s="11">
+        <v>0</v>
+      </c>
+      <c r="M87" s="11">
         <v>-618380</v>
       </c>
-      <c r="I87" s="11">
+      <c r="N87" s="11">
         <v>-291267</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15">
+        <v>-7599933</v>
+      </c>
+      <c r="F88" s="15">
+        <v>-11350348</v>
+      </c>
+      <c r="G88" s="15">
+        <v>-12312441</v>
+      </c>
+      <c r="H88" s="15">
+        <v>-9482702</v>
+      </c>
+      <c r="I88" s="15">
+        <v>-12362622</v>
+      </c>
+      <c r="J88" s="15">
         <v>-16796406</v>
       </c>
-      <c r="F88" s="15">
+      <c r="K88" s="15">
         <v>-24790809</v>
       </c>
-      <c r="G88" s="15">
+      <c r="L88" s="15">
         <v>-17817729</v>
       </c>
-      <c r="H88" s="15">
+      <c r="M88" s="15">
         <v>-25529340</v>
       </c>
-      <c r="I88" s="15">
+      <c r="N88" s="15">
         <v>-19355081</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -2384,80 +3429,130 @@
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D90" s="11"/>
-      <c r="E90" s="11" t="s">
-        <v>13</v>
+      <c r="E90" s="11">
+        <v>0</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="G90" s="11">
+        <v>0</v>
+      </c>
+      <c r="H90" s="11">
+        <v>0</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N90" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13">
+        <v>-1830164</v>
+      </c>
+      <c r="F91" s="13">
+        <v>-3314620</v>
+      </c>
+      <c r="G91" s="13">
+        <v>-2358099</v>
+      </c>
+      <c r="H91" s="13">
+        <v>-10504333</v>
+      </c>
+      <c r="I91" s="13">
+        <v>-3699120</v>
+      </c>
+      <c r="J91" s="13">
         <v>-3935695</v>
       </c>
-      <c r="F91" s="13">
+      <c r="K91" s="13">
         <v>-7968382</v>
       </c>
-      <c r="G91" s="13">
+      <c r="L91" s="13">
         <v>-3701891</v>
       </c>
-      <c r="H91" s="13">
+      <c r="M91" s="13">
         <v>170203</v>
       </c>
-      <c r="I91" s="13">
+      <c r="N91" s="13">
         <v>-3394241</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
       <c r="E92" s="17">
+        <v>-1830164</v>
+      </c>
+      <c r="F92" s="17">
+        <v>-3314620</v>
+      </c>
+      <c r="G92" s="17">
+        <v>-2358099</v>
+      </c>
+      <c r="H92" s="17">
+        <v>-10504333</v>
+      </c>
+      <c r="I92" s="17">
+        <v>-3699120</v>
+      </c>
+      <c r="J92" s="17">
         <v>-3935695</v>
       </c>
-      <c r="F92" s="17">
+      <c r="K92" s="17">
         <v>-7968382</v>
       </c>
-      <c r="G92" s="17">
+      <c r="L92" s="17">
         <v>-3701891</v>
       </c>
-      <c r="H92" s="17">
+      <c r="M92" s="17">
         <v>170203</v>
       </c>
-      <c r="I92" s="17">
+      <c r="N92" s="17">
         <v>-3394241</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C93" s="19"/>
       <c r="D93" s="19"/>
@@ -2466,10 +3561,15 @@
       <c r="G93" s="19"/>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="19"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
@@ -2488,78 +3588,138 @@
       <c r="I94" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="17">
+        <v>0</v>
+      </c>
+      <c r="K94" s="17">
+        <v>0</v>
+      </c>
+      <c r="L94" s="17">
+        <v>0</v>
+      </c>
+      <c r="M94" s="17">
+        <v>0</v>
+      </c>
+      <c r="N94" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D95" s="15"/>
       <c r="E95" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="G95" s="15">
+        <v>0</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I95" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J95" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K95" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L95" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M95" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N95" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="17">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="G96" s="17">
         <v>0</v>
       </c>
-      <c r="H96" s="17">
-        <v>0</v>
+      <c r="H96" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I96" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" s="17">
+        <v>0</v>
+      </c>
+      <c r="L96" s="17">
+        <v>0</v>
+      </c>
+      <c r="M96" s="17">
+        <v>0</v>
+      </c>
+      <c r="N96" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
       <c r="E97" s="15">
+        <v>-9430097</v>
+      </c>
+      <c r="F97" s="15">
+        <v>-14664968</v>
+      </c>
+      <c r="G97" s="15">
+        <v>-14670540</v>
+      </c>
+      <c r="H97" s="15">
+        <v>-19987035</v>
+      </c>
+      <c r="I97" s="15">
+        <v>-16061742</v>
+      </c>
+      <c r="J97" s="15">
         <v>-20732101</v>
       </c>
-      <c r="F97" s="15">
+      <c r="K97" s="15">
         <v>-32759191</v>
       </c>
-      <c r="G97" s="15">
+      <c r="L97" s="15">
         <v>-21519620</v>
       </c>
-      <c r="H97" s="15">
+      <c r="M97" s="15">
         <v>-25359137</v>
       </c>
-      <c r="I97" s="15">
+      <c r="N97" s="15">
         <v>-22749322</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2568,8 +3728,13 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2578,8 +3743,13 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2588,10 +3758,15 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -2610,8 +3785,23 @@
       <c r="I101" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2620,10 +3810,15 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
@@ -2632,248 +3827,403 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
+        <v>376</v>
+      </c>
+      <c r="F104" s="11">
+        <v>45576</v>
+      </c>
+      <c r="G104" s="11">
+        <v>-35217</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="11">
+        <v>741</v>
+      </c>
+      <c r="J104" s="11">
         <v>40475</v>
       </c>
-      <c r="F104" s="11">
+      <c r="K104" s="11">
         <v>274986</v>
       </c>
-      <c r="G104" s="11">
+      <c r="L104" s="11">
         <v>12908</v>
       </c>
-      <c r="H104" s="11">
+      <c r="M104" s="11">
         <v>64795</v>
       </c>
-      <c r="I104" s="11">
+      <c r="N104" s="11">
         <v>-89</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D105" s="13"/>
-      <c r="E105" s="13">
-        <v>0</v>
-      </c>
-      <c r="F105" s="13">
-        <v>0</v>
+      <c r="E105" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G105" s="13">
         <v>0</v>
       </c>
-      <c r="H105" s="13">
-        <v>0</v>
-      </c>
-      <c r="I105" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H105" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105" s="13">
+        <v>0</v>
+      </c>
+      <c r="K105" s="13">
+        <v>0</v>
+      </c>
+      <c r="L105" s="13">
+        <v>0</v>
+      </c>
+      <c r="M105" s="13">
+        <v>0</v>
+      </c>
+      <c r="N105" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
+        <v>1295375</v>
+      </c>
+      <c r="F106" s="11">
+        <v>4431502</v>
+      </c>
+      <c r="G106" s="11">
+        <v>1890331</v>
+      </c>
+      <c r="H106" s="11">
+        <v>1775582</v>
+      </c>
+      <c r="I106" s="11">
+        <v>2095076</v>
+      </c>
+      <c r="J106" s="11">
         <v>1497953</v>
       </c>
-      <c r="F106" s="11">
+      <c r="K106" s="11">
         <v>1089256</v>
       </c>
-      <c r="G106" s="11">
+      <c r="L106" s="11">
         <v>1406437</v>
       </c>
-      <c r="H106" s="11">
+      <c r="M106" s="11">
         <v>2064285</v>
       </c>
-      <c r="I106" s="11">
+      <c r="N106" s="11">
         <v>2060648</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D107" s="13"/>
       <c r="E107" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="13">
-        <v>0</v>
-      </c>
-      <c r="G107" s="13">
-        <v>0</v>
-      </c>
-      <c r="H107" s="13">
-        <v>0</v>
-      </c>
-      <c r="I107" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J107" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K107" s="13">
+        <v>0</v>
+      </c>
+      <c r="L107" s="13">
+        <v>0</v>
+      </c>
+      <c r="M107" s="13">
+        <v>0</v>
+      </c>
+      <c r="N107" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
+        <v>1998225</v>
+      </c>
+      <c r="F108" s="11">
+        <v>3525554</v>
+      </c>
+      <c r="G108" s="11">
+        <v>1534094</v>
+      </c>
+      <c r="H108" s="11">
+        <v>1864604</v>
+      </c>
+      <c r="I108" s="11">
+        <v>2401709</v>
+      </c>
+      <c r="J108" s="11">
         <v>2087485</v>
       </c>
-      <c r="F108" s="11">
+      <c r="K108" s="11">
         <v>482844</v>
       </c>
-      <c r="G108" s="11">
+      <c r="L108" s="11">
         <v>2495758</v>
       </c>
-      <c r="H108" s="11">
+      <c r="M108" s="11">
         <v>2818097</v>
       </c>
-      <c r="I108" s="11">
+      <c r="N108" s="11">
         <v>1928661</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D109" s="13"/>
-      <c r="E109" s="13">
+      <c r="E109" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" s="13">
+        <v>32300</v>
+      </c>
+      <c r="H109" s="13">
+        <v>39493</v>
+      </c>
+      <c r="I109" s="13">
+        <v>26086</v>
+      </c>
+      <c r="J109" s="13">
         <v>71576</v>
       </c>
-      <c r="F109" s="13">
+      <c r="K109" s="13">
         <v>10108</v>
       </c>
-      <c r="G109" s="13">
+      <c r="L109" s="13">
         <v>18012</v>
       </c>
-      <c r="H109" s="13">
+      <c r="M109" s="13">
         <v>91533</v>
       </c>
-      <c r="I109" s="13">
+      <c r="N109" s="13">
         <v>88001</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
         <v>0</v>
       </c>
       <c r="F110" s="11">
+        <v>0</v>
+      </c>
+      <c r="G110" s="11">
+        <v>0</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" s="11">
+        <v>0</v>
+      </c>
+      <c r="J110" s="11">
+        <v>0</v>
+      </c>
+      <c r="K110" s="11">
         <v>7731</v>
       </c>
-      <c r="G110" s="11">
+      <c r="L110" s="11">
         <v>157414</v>
       </c>
-      <c r="H110" s="11">
+      <c r="M110" s="11">
         <v>39849</v>
       </c>
-      <c r="I110" s="11">
+      <c r="N110" s="11">
         <v>5799</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D111" s="13"/>
-      <c r="E111" s="13">
-        <v>0</v>
+      <c r="E111" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="G111" s="13">
+        <v>0</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I111" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I111" s="13">
+        <v>0</v>
+      </c>
+      <c r="J111" s="13">
+        <v>0</v>
+      </c>
+      <c r="K111" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L111" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M111" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N111" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D112" s="11"/>
-      <c r="E112" s="11">
+      <c r="E112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" s="11">
+        <v>-78931</v>
+      </c>
+      <c r="J112" s="11">
         <v>-195988</v>
       </c>
-      <c r="F112" s="11">
+      <c r="K112" s="11">
         <v>36361</v>
       </c>
-      <c r="G112" s="11">
-        <v>0</v>
-      </c>
-      <c r="H112" s="11">
+      <c r="L112" s="11">
+        <v>0</v>
+      </c>
+      <c r="M112" s="11">
         <v>-173202</v>
       </c>
-      <c r="I112" s="11">
+      <c r="N112" s="11">
         <v>-64460</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15">
+        <v>3293976</v>
+      </c>
+      <c r="F113" s="15">
+        <v>8002632</v>
+      </c>
+      <c r="G113" s="15">
+        <v>3421508</v>
+      </c>
+      <c r="H113" s="15">
+        <v>3679679</v>
+      </c>
+      <c r="I113" s="15">
+        <v>4444681</v>
+      </c>
+      <c r="J113" s="15">
         <v>3501501</v>
       </c>
-      <c r="F113" s="15">
+      <c r="K113" s="15">
         <v>1901286</v>
       </c>
-      <c r="G113" s="15">
+      <c r="L113" s="15">
         <v>4090529</v>
       </c>
-      <c r="H113" s="15">
+      <c r="M113" s="15">
         <v>4905357</v>
       </c>
-      <c r="I113" s="15">
+      <c r="N113" s="15">
         <v>4018560</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -2882,80 +4232,130 @@
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D115" s="11"/>
-      <c r="E115" s="11" t="s">
-        <v>13</v>
+      <c r="E115" s="11">
+        <v>0</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="G115" s="11">
+        <v>0</v>
+      </c>
+      <c r="H115" s="11">
+        <v>0</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N115" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="13">
+        <v>2004621</v>
+      </c>
+      <c r="F116" s="13">
+        <v>2913509</v>
+      </c>
+      <c r="G116" s="13">
+        <v>1199085</v>
+      </c>
+      <c r="H116" s="13">
+        <v>4456447</v>
+      </c>
+      <c r="I116" s="13">
+        <v>592130</v>
+      </c>
+      <c r="J116" s="13">
         <v>384473</v>
       </c>
-      <c r="F116" s="13">
+      <c r="K116" s="13">
         <v>-17573</v>
       </c>
-      <c r="G116" s="13">
+      <c r="L116" s="13">
         <v>457912</v>
       </c>
-      <c r="H116" s="13">
+      <c r="M116" s="13">
         <v>170203</v>
       </c>
-      <c r="I116" s="13">
+      <c r="N116" s="13">
         <v>853723</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
       <c r="E117" s="17">
+        <v>2004621</v>
+      </c>
+      <c r="F117" s="17">
+        <v>2913509</v>
+      </c>
+      <c r="G117" s="17">
+        <v>1199085</v>
+      </c>
+      <c r="H117" s="17">
+        <v>4456447</v>
+      </c>
+      <c r="I117" s="17">
+        <v>592130</v>
+      </c>
+      <c r="J117" s="17">
         <v>384473</v>
       </c>
-      <c r="F117" s="17">
+      <c r="K117" s="17">
         <v>-17573</v>
       </c>
-      <c r="G117" s="17">
+      <c r="L117" s="17">
         <v>457912</v>
       </c>
-      <c r="H117" s="17">
+      <c r="M117" s="17">
         <v>170203</v>
       </c>
-      <c r="I117" s="17">
+      <c r="N117" s="17">
         <v>853723</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C118" s="19"/>
       <c r="D118" s="19"/>
@@ -2964,10 +4364,15 @@
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="19"/>
+      <c r="K118" s="19"/>
+      <c r="L118" s="19"/>
+      <c r="M118" s="19"/>
+      <c r="N118" s="19"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
@@ -2986,26 +4391,56 @@
       <c r="I119" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="17">
+        <v>0</v>
+      </c>
+      <c r="K119" s="17">
+        <v>0</v>
+      </c>
+      <c r="L119" s="17">
+        <v>0</v>
+      </c>
+      <c r="M119" s="17">
+        <v>0</v>
+      </c>
+      <c r="N119" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C120" s="15"/>
       <c r="D120" s="15"/>
       <c r="E120" s="15">
+        <v>5298597</v>
+      </c>
+      <c r="F120" s="15">
+        <v>10916141</v>
+      </c>
+      <c r="G120" s="15">
+        <v>4620593</v>
+      </c>
+      <c r="H120" s="15">
+        <v>8136126</v>
+      </c>
+      <c r="I120" s="15">
+        <v>5036811</v>
+      </c>
+      <c r="J120" s="15">
         <v>3885974</v>
       </c>
-      <c r="F120" s="15">
+      <c r="K120" s="15">
         <v>1883713</v>
       </c>
-      <c r="G120" s="15">
+      <c r="L120" s="15">
         <v>4548441</v>
       </c>
-      <c r="H120" s="15">
+      <c r="M120" s="15">
         <v>5075560</v>
       </c>
-      <c r="I120" s="15">
+      <c r="N120" s="15">
         <v>4872283</v>
       </c>
     </row>

--- a/database/industries/folad/fejahan/product/quarterly_seprated.xlsx
+++ b/database/industries/folad/fejahan/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fejahan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fejahan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0D5570-63CE-43C8-9394-07C5A133D457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995DAFA9-12AA-4BDA-B735-1DAFAB878428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="59">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -679,12 +679,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -699,7 +699,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -716,7 +716,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -733,7 +733,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -748,7 +748,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -797,7 +797,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -834,7 +834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -849,7 +849,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -875,37 +875,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>479</v>
+        <v>6246</v>
       </c>
       <c r="F11" s="11">
-        <v>6246</v>
-      </c>
-      <c r="G11" s="11">
         <v>-784</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>18</v>
+      <c r="G11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1484</v>
       </c>
       <c r="I11" s="11">
-        <v>1484</v>
+        <v>4277</v>
       </c>
       <c r="J11" s="11">
-        <v>4277</v>
+        <v>20198</v>
       </c>
       <c r="K11" s="11">
-        <v>20198</v>
+        <v>1942</v>
       </c>
       <c r="L11" s="11">
-        <v>1942</v>
+        <v>14911</v>
       </c>
       <c r="M11" s="11">
-        <v>14911</v>
+        <v>0</v>
       </c>
       <c r="N11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>64382</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -916,17 +916,17 @@
       <c r="E12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0</v>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>18</v>
+      <c r="I12" s="13">
+        <v>0</v>
       </c>
       <c r="J12" s="13">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -953,37 +953,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>61893</v>
+        <v>110228</v>
       </c>
       <c r="F13" s="11">
-        <v>110228</v>
+        <v>81480</v>
       </c>
       <c r="G13" s="11">
-        <v>81480</v>
+        <v>65037</v>
       </c>
       <c r="H13" s="11">
-        <v>65037</v>
+        <v>59209</v>
       </c>
       <c r="I13" s="11">
-        <v>59209</v>
+        <v>72594</v>
       </c>
       <c r="J13" s="11">
-        <v>72594</v>
+        <v>134993</v>
       </c>
       <c r="K13" s="11">
-        <v>134993</v>
+        <v>68999</v>
       </c>
       <c r="L13" s="11">
-        <v>68999</v>
+        <v>120726</v>
       </c>
       <c r="M13" s="11">
-        <v>120726</v>
+        <v>97183</v>
       </c>
       <c r="N13" s="11">
-        <v>97183</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>192973</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -1006,8 +1006,8 @@
       <c r="I14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>18</v>
+      <c r="J14" s="13">
+        <v>0</v>
       </c>
       <c r="K14" s="13">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1031,37 +1031,37 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>79522</v>
+        <v>76855</v>
       </c>
       <c r="F15" s="11">
-        <v>76855</v>
+        <v>66749</v>
       </c>
       <c r="G15" s="11">
-        <v>66749</v>
+        <v>45923</v>
       </c>
       <c r="H15" s="11">
-        <v>45923</v>
+        <v>55515</v>
       </c>
       <c r="I15" s="11">
-        <v>55515</v>
+        <v>71286</v>
       </c>
       <c r="J15" s="11">
-        <v>71286</v>
+        <v>61774</v>
       </c>
       <c r="K15" s="11">
-        <v>61774</v>
+        <v>73565</v>
       </c>
       <c r="L15" s="11">
-        <v>73565</v>
+        <v>90062</v>
       </c>
       <c r="M15" s="11">
-        <v>90062</v>
+        <v>67446</v>
       </c>
       <c r="N15" s="11">
-        <v>67446</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>91051</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1072,35 +1072,35 @@
       <c r="E16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>18</v>
+      <c r="F16" s="13">
+        <v>823</v>
       </c>
       <c r="G16" s="13">
-        <v>823</v>
+        <v>743</v>
       </c>
       <c r="H16" s="13">
-        <v>743</v>
+        <v>501</v>
       </c>
       <c r="I16" s="13">
-        <v>501</v>
+        <v>1386</v>
       </c>
       <c r="J16" s="13">
-        <v>1386</v>
+        <v>809</v>
       </c>
       <c r="K16" s="13">
-        <v>809</v>
+        <v>373</v>
       </c>
       <c r="L16" s="13">
-        <v>373</v>
+        <v>1124</v>
       </c>
       <c r="M16" s="13">
-        <v>1124</v>
+        <v>1382</v>
       </c>
       <c r="N16" s="13">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1114,32 +1114,32 @@
       <c r="F17" s="11">
         <v>0</v>
       </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>18</v>
+      <c r="G17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <v>0</v>
       </c>
       <c r="J17" s="11">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="K17" s="11">
-        <v>1868</v>
+        <v>9178</v>
       </c>
       <c r="L17" s="11">
-        <v>9178</v>
+        <v>2305</v>
       </c>
       <c r="M17" s="11">
-        <v>2305</v>
+        <v>1302</v>
       </c>
       <c r="N17" s="11">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4981</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
@@ -1150,20 +1150,20 @@
       <c r="E18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>18</v>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
       </c>
       <c r="I18" s="13">
         <v>0</v>
       </c>
-      <c r="J18" s="13">
-        <v>0</v>
+      <c r="J18" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>18</v>
@@ -1178,7 +1178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1195,66 +1195,66 @@
       <c r="G19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>18</v>
+      <c r="H19" s="11">
+        <v>12109</v>
       </c>
       <c r="I19" s="11">
-        <v>12109</v>
+        <v>11864</v>
       </c>
       <c r="J19" s="11">
-        <v>11864</v>
+        <v>26</v>
       </c>
       <c r="K19" s="11">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L19" s="11">
-        <v>0</v>
+        <v>9959</v>
       </c>
       <c r="M19" s="11">
-        <v>9959</v>
+        <v>5008</v>
       </c>
       <c r="N19" s="11">
-        <v>5008</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4994</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15">
-        <v>141894</v>
+        <v>193329</v>
       </c>
       <c r="F20" s="15">
-        <v>193329</v>
+        <v>148268</v>
       </c>
       <c r="G20" s="15">
-        <v>148268</v>
+        <v>111703</v>
       </c>
       <c r="H20" s="15">
-        <v>111703</v>
+        <v>128818</v>
       </c>
       <c r="I20" s="15">
-        <v>128818</v>
+        <v>161407</v>
       </c>
       <c r="J20" s="15">
-        <v>161407</v>
+        <v>219668</v>
       </c>
       <c r="K20" s="15">
-        <v>219668</v>
+        <v>154057</v>
       </c>
       <c r="L20" s="15">
-        <v>154057</v>
+        <v>239087</v>
       </c>
       <c r="M20" s="15">
-        <v>239087</v>
+        <v>172321</v>
       </c>
       <c r="N20" s="15">
-        <v>172321</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>359650</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>28</v>
       </c>
@@ -1271,7 +1271,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>19</v>
       </c>
@@ -1279,17 +1279,17 @@
         <v>17</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="11">
-        <v>0</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>18</v>
+      <c r="E22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
       </c>
       <c r="G22" s="11">
         <v>0</v>
       </c>
-      <c r="H22" s="11">
-        <v>0</v>
+      <c r="H22" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>18</v>
@@ -1310,7 +1310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>20</v>
       </c>
@@ -1319,74 +1319,74 @@
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>42026</v>
+        <v>59938</v>
       </c>
       <c r="F23" s="13">
-        <v>59938</v>
+        <v>29823</v>
       </c>
       <c r="G23" s="13">
-        <v>29823</v>
+        <v>119792</v>
       </c>
       <c r="H23" s="13">
-        <v>119792</v>
+        <v>29974</v>
       </c>
       <c r="I23" s="13">
-        <v>29974</v>
+        <v>29999</v>
       </c>
       <c r="J23" s="13">
-        <v>29999</v>
+        <v>59909</v>
       </c>
       <c r="K23" s="13">
-        <v>59909</v>
+        <v>30041</v>
       </c>
       <c r="L23" s="13">
-        <v>30041</v>
+        <v>0</v>
       </c>
       <c r="M23" s="13">
-        <v>0</v>
+        <v>29977</v>
       </c>
       <c r="N23" s="13">
-        <v>29977</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29945</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17">
-        <v>42026</v>
+        <v>59938</v>
       </c>
       <c r="F24" s="17">
-        <v>59938</v>
+        <v>29823</v>
       </c>
       <c r="G24" s="17">
-        <v>29823</v>
+        <v>119792</v>
       </c>
       <c r="H24" s="17">
-        <v>119792</v>
+        <v>29974</v>
       </c>
       <c r="I24" s="17">
-        <v>29974</v>
+        <v>29999</v>
       </c>
       <c r="J24" s="17">
-        <v>29999</v>
+        <v>59909</v>
       </c>
       <c r="K24" s="17">
-        <v>59909</v>
+        <v>30041</v>
       </c>
       <c r="L24" s="17">
-        <v>30041</v>
+        <v>0</v>
       </c>
       <c r="M24" s="17">
-        <v>0</v>
+        <v>29977</v>
       </c>
       <c r="N24" s="17">
-        <v>29977</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29945</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="18" t="s">
         <v>30</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>31</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>32</v>
       </c>
@@ -1451,11 +1451,11 @@
       <c r="E27" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="15">
-        <v>0</v>
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>18</v>
@@ -1479,7 +1479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>34</v>
       </c>
@@ -1488,20 +1488,20 @@
       <c r="E28" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="17">
-        <v>0</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="17">
-        <v>0</v>
-      </c>
-      <c r="J28" s="17" t="s">
-        <v>18</v>
+      <c r="F28" s="17">
+        <v>0</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="17">
+        <v>0</v>
       </c>
       <c r="K28" s="17">
         <v>0</v>
@@ -1516,44 +1516,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15">
-        <v>183920</v>
+        <v>253267</v>
       </c>
       <c r="F29" s="15">
-        <v>253267</v>
+        <v>178091</v>
       </c>
       <c r="G29" s="15">
-        <v>178091</v>
+        <v>231495</v>
       </c>
       <c r="H29" s="15">
-        <v>231495</v>
+        <v>158792</v>
       </c>
       <c r="I29" s="15">
-        <v>158792</v>
+        <v>191406</v>
       </c>
       <c r="J29" s="15">
-        <v>191406</v>
+        <v>279577</v>
       </c>
       <c r="K29" s="15">
-        <v>279577</v>
+        <v>184098</v>
       </c>
       <c r="L29" s="15">
-        <v>184098</v>
+        <v>239087</v>
       </c>
       <c r="M29" s="15">
-        <v>239087</v>
+        <v>202298</v>
       </c>
       <c r="N29" s="15">
-        <v>202298</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>389595</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1568,7 +1568,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1583,7 +1583,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1598,7 +1598,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>36</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1650,7 +1650,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>37</v>
       </c>
@@ -1667,7 +1667,7 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>16</v>
       </c>
@@ -1676,37 +1676,37 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>392</v>
+        <v>45576</v>
       </c>
       <c r="F36" s="11">
-        <v>45576</v>
-      </c>
-      <c r="G36" s="11">
         <v>-22873</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>18</v>
+      <c r="G36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="11">
+        <v>742</v>
       </c>
       <c r="I36" s="11">
-        <v>742</v>
+        <v>53186</v>
       </c>
       <c r="J36" s="11">
-        <v>53186</v>
+        <v>373928</v>
       </c>
       <c r="K36" s="11">
-        <v>373928</v>
+        <v>20645</v>
       </c>
       <c r="L36" s="11">
-        <v>20645</v>
+        <v>104970</v>
       </c>
       <c r="M36" s="11">
-        <v>104970</v>
+        <v>-1</v>
       </c>
       <c r="N36" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1326967</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>19</v>
       </c>
@@ -1717,17 +1717,17 @@
       <c r="E37" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="13">
-        <v>0</v>
+      <c r="F37" s="13">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I37" s="13" t="s">
-        <v>18</v>
+      <c r="I37" s="13">
+        <v>0</v>
       </c>
       <c r="J37" s="13">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>20</v>
       </c>
@@ -1754,37 +1754,37 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>4740217</v>
+        <v>11132198</v>
       </c>
       <c r="F38" s="11">
-        <v>11132198</v>
+        <v>8310490</v>
       </c>
       <c r="G38" s="11">
-        <v>8310490</v>
+        <v>7478486</v>
       </c>
       <c r="H38" s="11">
-        <v>7478486</v>
+        <v>8175383</v>
       </c>
       <c r="I38" s="11">
-        <v>8175383</v>
+        <v>9576793</v>
       </c>
       <c r="J38" s="11">
-        <v>9576793</v>
+        <v>17373621</v>
       </c>
       <c r="K38" s="11">
-        <v>17373621</v>
+        <v>9909096</v>
       </c>
       <c r="L38" s="11">
-        <v>9909096</v>
+        <v>15866316</v>
       </c>
       <c r="M38" s="11">
-        <v>15866316</v>
+        <v>12864681</v>
       </c>
       <c r="N38" s="11">
-        <v>12864681</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>34713694</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>21</v>
       </c>
@@ -1807,8 +1807,8 @@
       <c r="I39" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="13" t="s">
-        <v>18</v>
+      <c r="J39" s="13">
+        <v>0</v>
       </c>
       <c r="K39" s="13">
         <v>0</v>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>22</v>
       </c>
@@ -1832,37 +1832,37 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>6153300</v>
+        <v>8175207</v>
       </c>
       <c r="F40" s="11">
-        <v>8175207</v>
+        <v>7405508</v>
       </c>
       <c r="G40" s="11">
-        <v>7405508</v>
+        <v>5639537</v>
       </c>
       <c r="H40" s="11">
-        <v>5639537</v>
+        <v>8182033</v>
       </c>
       <c r="I40" s="11">
-        <v>8182033</v>
+        <v>10169591</v>
       </c>
       <c r="J40" s="11">
-        <v>10169591</v>
+        <v>8844025</v>
       </c>
       <c r="K40" s="11">
-        <v>8844025</v>
+        <v>11492023</v>
       </c>
       <c r="L40" s="11">
-        <v>11492023</v>
+        <v>13775619</v>
       </c>
       <c r="M40" s="11">
-        <v>13775619</v>
+        <v>10096381</v>
       </c>
       <c r="N40" s="11">
-        <v>10096381</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16441211</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>23</v>
       </c>
@@ -1873,35 +1873,35 @@
       <c r="E41" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>18</v>
+      <c r="F41" s="13">
+        <v>40823</v>
       </c>
       <c r="G41" s="13">
-        <v>40823</v>
+        <v>44358</v>
       </c>
       <c r="H41" s="13">
-        <v>44358</v>
+        <v>36233</v>
       </c>
       <c r="I41" s="13">
-        <v>36233</v>
+        <v>93762</v>
       </c>
       <c r="J41" s="13">
-        <v>93762</v>
+        <v>32339</v>
       </c>
       <c r="K41" s="13">
-        <v>32339</v>
+        <v>22664</v>
       </c>
       <c r="L41" s="13">
-        <v>22664</v>
+        <v>109022</v>
       </c>
       <c r="M41" s="13">
-        <v>109022</v>
+        <v>110316</v>
       </c>
       <c r="N41" s="13">
-        <v>110316</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>118426</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>24</v>
       </c>
@@ -1910,37 +1910,37 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F42" s="11">
-        <v>-1</v>
-      </c>
-      <c r="G42" s="11">
         <v>1</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>18</v>
+      <c r="G42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
       </c>
       <c r="I42" s="11">
         <v>0</v>
       </c>
       <c r="J42" s="11">
-        <v>0</v>
+        <v>67295</v>
       </c>
       <c r="K42" s="11">
-        <v>67295</v>
+        <v>463830</v>
       </c>
       <c r="L42" s="11">
-        <v>463830</v>
+        <v>133592</v>
       </c>
       <c r="M42" s="11">
-        <v>133592</v>
+        <v>75457</v>
       </c>
       <c r="N42" s="11">
-        <v>75457</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>407497</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>25</v>
       </c>
@@ -1951,20 +1951,20 @@
       <c r="E43" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F43" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="13">
-        <v>0</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>18</v>
+      <c r="F43" s="13">
+        <v>0</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="13">
+        <v>0</v>
       </c>
       <c r="I43" s="13">
         <v>0</v>
       </c>
-      <c r="J43" s="13">
-        <v>0</v>
+      <c r="J43" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K43" s="13" t="s">
         <v>18</v>
@@ -1979,7 +1979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>26</v>
       </c>
@@ -1996,66 +1996,66 @@
       <c r="G44" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="11" t="s">
-        <v>18</v>
+      <c r="H44" s="11">
+        <v>412911</v>
       </c>
       <c r="I44" s="11">
-        <v>412911</v>
+        <v>404575</v>
       </c>
       <c r="J44" s="11">
-        <v>404575</v>
+        <v>887</v>
       </c>
       <c r="K44" s="11">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="L44" s="11">
-        <v>0</v>
+        <v>445178</v>
       </c>
       <c r="M44" s="11">
-        <v>445178</v>
+        <v>226807</v>
       </c>
       <c r="N44" s="11">
-        <v>226807</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>320158</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
-        <v>10893909</v>
+        <v>19352980</v>
       </c>
       <c r="F45" s="15">
-        <v>19352980</v>
+        <v>15733949</v>
       </c>
       <c r="G45" s="15">
-        <v>15733949</v>
+        <v>13162381</v>
       </c>
       <c r="H45" s="15">
-        <v>13162381</v>
+        <v>16807302</v>
       </c>
       <c r="I45" s="15">
-        <v>16807302</v>
+        <v>20297907</v>
       </c>
       <c r="J45" s="15">
-        <v>20297907</v>
+        <v>26692095</v>
       </c>
       <c r="K45" s="15">
-        <v>26692095</v>
+        <v>21908258</v>
       </c>
       <c r="L45" s="15">
-        <v>21908258</v>
+        <v>30434697</v>
       </c>
       <c r="M45" s="15">
-        <v>30434697</v>
+        <v>23373641</v>
       </c>
       <c r="N45" s="15">
-        <v>23373641</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>53327953</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>39</v>
       </c>
@@ -2072,7 +2072,7 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>19</v>
       </c>
@@ -2080,17 +2080,17 @@
         <v>38</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="11">
-        <v>0</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>18</v>
+      <c r="E47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0</v>
       </c>
       <c r="G47" s="11">
         <v>0</v>
       </c>
-      <c r="H47" s="11">
-        <v>0</v>
+      <c r="H47" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>18</v>
@@ -2111,7 +2111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>20</v>
       </c>
@@ -2120,74 +2120,74 @@
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13">
-        <v>3834785</v>
+        <v>6228129</v>
       </c>
       <c r="F48" s="13">
-        <v>6228129</v>
+        <v>3557184</v>
       </c>
       <c r="G48" s="13">
-        <v>3557184</v>
+        <v>14960780</v>
       </c>
       <c r="H48" s="13">
-        <v>14960780</v>
+        <v>4291250</v>
       </c>
       <c r="I48" s="13">
-        <v>4291250</v>
+        <v>4320168</v>
       </c>
       <c r="J48" s="13">
-        <v>4320168</v>
+        <v>7950809</v>
       </c>
       <c r="K48" s="13">
-        <v>7950809</v>
+        <v>4159803</v>
       </c>
       <c r="L48" s="13">
-        <v>4159803</v>
+        <v>0</v>
       </c>
       <c r="M48" s="13">
-        <v>0</v>
+        <v>4247964</v>
       </c>
       <c r="N48" s="13">
-        <v>4247964</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4261085</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17">
-        <v>3834785</v>
+        <v>6228129</v>
       </c>
       <c r="F49" s="17">
-        <v>6228129</v>
+        <v>3557184</v>
       </c>
       <c r="G49" s="17">
-        <v>3557184</v>
+        <v>14960780</v>
       </c>
       <c r="H49" s="17">
-        <v>14960780</v>
+        <v>4291250</v>
       </c>
       <c r="I49" s="17">
-        <v>4291250</v>
+        <v>4320168</v>
       </c>
       <c r="J49" s="17">
-        <v>4320168</v>
+        <v>7950809</v>
       </c>
       <c r="K49" s="17">
-        <v>7950809</v>
+        <v>4159803</v>
       </c>
       <c r="L49" s="17">
-        <v>4159803</v>
+        <v>0</v>
       </c>
       <c r="M49" s="17">
-        <v>0</v>
+        <v>4247964</v>
       </c>
       <c r="N49" s="17">
-        <v>4247964</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4261085</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="18" t="s">
         <v>40</v>
       </c>
@@ -2204,7 +2204,7 @@
       <c r="M50" s="19"/>
       <c r="N50" s="19"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>31</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>32</v>
       </c>
@@ -2252,11 +2252,11 @@
       <c r="E52" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="15">
-        <v>0</v>
+      <c r="F52" s="15">
+        <v>0</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H52" s="15" t="s">
         <v>18</v>
@@ -2280,7 +2280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="16" t="s">
         <v>34</v>
       </c>
@@ -2291,20 +2291,20 @@
       <c r="E53" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F53" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="17">
-        <v>0</v>
-      </c>
-      <c r="H53" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="17">
-        <v>0</v>
-      </c>
-      <c r="J53" s="17" t="s">
-        <v>18</v>
+      <c r="F53" s="17">
+        <v>0</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="17">
+        <v>0</v>
+      </c>
+      <c r="I53" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="17">
+        <v>0</v>
       </c>
       <c r="K53" s="17">
         <v>0</v>
@@ -2319,44 +2319,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15">
-        <v>14728694</v>
+        <v>25581109</v>
       </c>
       <c r="F54" s="15">
-        <v>25581109</v>
+        <v>19291133</v>
       </c>
       <c r="G54" s="15">
-        <v>19291133</v>
+        <v>28123161</v>
       </c>
       <c r="H54" s="15">
-        <v>28123161</v>
+        <v>21098552</v>
       </c>
       <c r="I54" s="15">
-        <v>21098552</v>
+        <v>24618075</v>
       </c>
       <c r="J54" s="15">
-        <v>24618075</v>
+        <v>34642904</v>
       </c>
       <c r="K54" s="15">
-        <v>34642904</v>
+        <v>26068061</v>
       </c>
       <c r="L54" s="15">
-        <v>26068061</v>
+        <v>30434697</v>
       </c>
       <c r="M54" s="15">
-        <v>30434697</v>
+        <v>27621605</v>
       </c>
       <c r="N54" s="15">
-        <v>27621605</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>57589038</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2371,7 +2371,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2386,7 +2386,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2401,7 +2401,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>41</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2453,7 +2453,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>42</v>
       </c>
@@ -2470,7 +2470,7 @@
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>16</v>
       </c>
@@ -2479,37 +2479,37 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>818372</v>
+        <v>7296830</v>
       </c>
       <c r="F61" s="11">
-        <v>7296830</v>
-      </c>
-      <c r="G61" s="11">
         <v>1653230</v>
       </c>
-      <c r="H61" s="11" t="s">
-        <v>18</v>
+      <c r="G61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="11">
+        <v>500000</v>
       </c>
       <c r="I61" s="11">
-        <v>500000</v>
+        <v>12435352</v>
       </c>
       <c r="J61" s="11">
-        <v>12435352</v>
+        <v>18513120</v>
       </c>
       <c r="K61" s="11">
-        <v>18513120</v>
+        <v>10630793</v>
       </c>
       <c r="L61" s="11">
-        <v>10630793</v>
-      </c>
-      <c r="M61" s="11">
         <v>7039769</v>
       </c>
-      <c r="N61" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N61" s="11">
+        <v>20610838</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>19</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>20</v>
       </c>
@@ -2557,37 +2557,37 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>76587288</v>
+        <v>100992470</v>
       </c>
       <c r="F63" s="11">
-        <v>100992470</v>
+        <v>82149964</v>
       </c>
       <c r="G63" s="11">
-        <v>82149964</v>
+        <v>114988176</v>
       </c>
       <c r="H63" s="11">
-        <v>114988176</v>
+        <v>138076694</v>
       </c>
       <c r="I63" s="11">
-        <v>138076694</v>
+        <v>131922652</v>
       </c>
       <c r="J63" s="11">
-        <v>131922652</v>
+        <v>128700162</v>
       </c>
       <c r="K63" s="11">
-        <v>128700162</v>
+        <v>143612168</v>
       </c>
       <c r="L63" s="11">
-        <v>143612168</v>
+        <v>131424184</v>
       </c>
       <c r="M63" s="11">
-        <v>131424184</v>
+        <v>132375837</v>
       </c>
       <c r="N63" s="11">
-        <v>132375837</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>179888865</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>21</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>22</v>
       </c>
@@ -2635,37 +2635,37 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>77378587</v>
+        <v>106371830</v>
       </c>
       <c r="F65" s="11">
-        <v>106371830</v>
+        <v>89343732</v>
       </c>
       <c r="G65" s="11">
-        <v>89343732</v>
+        <v>122804194</v>
       </c>
       <c r="H65" s="11">
-        <v>122804194</v>
+        <v>147384184</v>
       </c>
       <c r="I65" s="11">
-        <v>147384184</v>
+        <v>142659021</v>
       </c>
       <c r="J65" s="11">
-        <v>142659021</v>
+        <v>143167433</v>
       </c>
       <c r="K65" s="11">
-        <v>143167433</v>
+        <v>156215904</v>
       </c>
       <c r="L65" s="11">
-        <v>156215904</v>
+        <v>152957063</v>
       </c>
       <c r="M65" s="11">
-        <v>152957063</v>
+        <v>149695771</v>
       </c>
       <c r="N65" s="11">
-        <v>149695771</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>180571449</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>23</v>
       </c>
@@ -2676,35 +2676,35 @@
       <c r="E66" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F66" s="13" t="s">
-        <v>18</v>
+      <c r="F66" s="13">
+        <v>49602673</v>
       </c>
       <c r="G66" s="13">
-        <v>49602673</v>
+        <v>59701211</v>
       </c>
       <c r="H66" s="13">
-        <v>59701211</v>
+        <v>72323353</v>
       </c>
       <c r="I66" s="13">
-        <v>72323353</v>
+        <v>67649351</v>
       </c>
       <c r="J66" s="13">
-        <v>67649351</v>
+        <v>39974042</v>
       </c>
       <c r="K66" s="13">
-        <v>39974042</v>
+        <v>60761394</v>
       </c>
       <c r="L66" s="13">
-        <v>60761394</v>
+        <v>96994662</v>
       </c>
       <c r="M66" s="13">
-        <v>96994662</v>
+        <v>79823444</v>
       </c>
       <c r="N66" s="13">
-        <v>79823444</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>93322301</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>24</v>
       </c>
@@ -2715,35 +2715,35 @@
       <c r="E67" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F67" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="11">
+      <c r="F67" s="11">
         <v>16200068</v>
       </c>
+      <c r="G67" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="H67" s="11" t="s">
         <v>18</v>
       </c>
       <c r="I67" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="11" t="s">
-        <v>18</v>
+      <c r="J67" s="11">
+        <v>36025161</v>
       </c>
       <c r="K67" s="11">
-        <v>36025161</v>
+        <v>50537154</v>
       </c>
       <c r="L67" s="11">
-        <v>50537154</v>
+        <v>57957484</v>
       </c>
       <c r="M67" s="11">
-        <v>57957484</v>
+        <v>57954685</v>
       </c>
       <c r="N67" s="11">
-        <v>57954685</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>81810279</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>25</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>26</v>
       </c>
@@ -2799,29 +2799,29 @@
       <c r="G69" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H69" s="11" t="s">
-        <v>18</v>
+      <c r="H69" s="11">
+        <v>34099513</v>
       </c>
       <c r="I69" s="11">
-        <v>34099513</v>
+        <v>34101062</v>
       </c>
       <c r="J69" s="11">
-        <v>34101062</v>
-      </c>
-      <c r="K69" s="11">
         <v>34115385</v>
       </c>
-      <c r="L69" s="11" t="s">
-        <v>18</v>
+      <c r="K69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="11">
+        <v>44701074</v>
       </c>
       <c r="M69" s="11">
-        <v>44701074</v>
+        <v>45288938</v>
       </c>
       <c r="N69" s="11">
-        <v>45288938</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>64108530</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>44</v>
       </c>
@@ -2838,7 +2838,7 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>19</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>20</v>
       </c>
@@ -2886,37 +2886,37 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>91247918</v>
+        <v>103909523</v>
       </c>
       <c r="F72" s="13">
-        <v>103909523</v>
+        <v>103349329</v>
       </c>
       <c r="G72" s="13">
-        <v>103349329</v>
+        <v>124889642</v>
       </c>
       <c r="H72" s="13">
-        <v>124889642</v>
+        <v>143165744</v>
       </c>
       <c r="I72" s="13">
-        <v>143165744</v>
+        <v>144010400</v>
       </c>
       <c r="J72" s="13">
-        <v>144010400</v>
+        <v>132714767</v>
       </c>
       <c r="K72" s="13">
-        <v>132714767</v>
-      </c>
-      <c r="L72" s="13">
         <v>138470857</v>
       </c>
-      <c r="M72" s="13" t="s">
-        <v>18</v>
+      <c r="L72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M72" s="13">
+        <v>141707442</v>
       </c>
       <c r="N72" s="13">
-        <v>141707442</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>142297045</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2931,7 +2931,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2946,7 +2946,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2961,7 +2961,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>45</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3013,7 +3013,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>46</v>
       </c>
@@ -3030,7 +3030,7 @@
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
@@ -3039,37 +3039,37 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="F79" s="11">
-        <v>0</v>
-      </c>
-      <c r="G79" s="11">
         <v>-12344</v>
       </c>
-      <c r="H79" s="11" t="s">
-        <v>18</v>
+      <c r="G79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="11">
+        <v>-1</v>
       </c>
       <c r="I79" s="11">
-        <v>-1</v>
+        <v>-12711</v>
       </c>
       <c r="J79" s="11">
-        <v>-12711</v>
+        <v>-98942</v>
       </c>
       <c r="K79" s="11">
-        <v>-98942</v>
+        <v>-7737</v>
       </c>
       <c r="L79" s="11">
-        <v>-7737</v>
+        <v>-40175</v>
       </c>
       <c r="M79" s="11">
-        <v>-40175</v>
+        <v>-88</v>
       </c>
       <c r="N79" s="11">
-        <v>-88</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-799948</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>19</v>
       </c>
@@ -3080,17 +3080,17 @@
       <c r="E80" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F80" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" s="13">
-        <v>0</v>
+      <c r="F80" s="13">
+        <v>0</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="H80" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I80" s="13" t="s">
-        <v>18</v>
+      <c r="I80" s="13">
+        <v>0</v>
       </c>
       <c r="J80" s="13">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>20</v>
       </c>
@@ -3117,37 +3117,37 @@
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
-        <v>-3444842</v>
+        <v>-6700696</v>
       </c>
       <c r="F81" s="11">
-        <v>-6700696</v>
+        <v>-6420159</v>
       </c>
       <c r="G81" s="11">
-        <v>-6420159</v>
+        <v>-5702904</v>
       </c>
       <c r="H81" s="11">
-        <v>-5702904</v>
+        <v>-6080307</v>
       </c>
       <c r="I81" s="11">
-        <v>-6080307</v>
+        <v>-8078840</v>
       </c>
       <c r="J81" s="11">
-        <v>-8078840</v>
+        <v>-16284365</v>
       </c>
       <c r="K81" s="11">
-        <v>-16284365</v>
+        <v>-8502659</v>
       </c>
       <c r="L81" s="11">
-        <v>-8502659</v>
+        <v>-13802031</v>
       </c>
       <c r="M81" s="11">
-        <v>-13802031</v>
+        <v>-10804033</v>
       </c>
       <c r="N81" s="11">
-        <v>-10804033</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-23940605</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>21</v>
       </c>
@@ -3170,8 +3170,8 @@
       <c r="I82" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J82" s="13" t="s">
-        <v>18</v>
+      <c r="J82" s="13">
+        <v>0</v>
       </c>
       <c r="K82" s="13">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>22</v>
       </c>
@@ -3195,37 +3195,37 @@
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
-        <v>-4155075</v>
+        <v>-4649653</v>
       </c>
       <c r="F83" s="11">
-        <v>-4649653</v>
+        <v>-5871414</v>
       </c>
       <c r="G83" s="11">
-        <v>-5871414</v>
+        <v>-3774933</v>
       </c>
       <c r="H83" s="11">
-        <v>-3774933</v>
+        <v>-5780324</v>
       </c>
       <c r="I83" s="11">
-        <v>-5780324</v>
+        <v>-8082106</v>
       </c>
       <c r="J83" s="11">
-        <v>-8082106</v>
+        <v>-8361181</v>
       </c>
       <c r="K83" s="11">
-        <v>-8361181</v>
+        <v>-8996265</v>
       </c>
       <c r="L83" s="11">
-        <v>-8996265</v>
+        <v>-10957522</v>
       </c>
       <c r="M83" s="11">
-        <v>-10957522</v>
+        <v>-8167720</v>
       </c>
       <c r="N83" s="11">
-        <v>-8167720</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-12867317</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>23</v>
       </c>
@@ -3236,35 +3236,35 @@
       <c r="E84" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F84" s="13" t="s">
-        <v>18</v>
+      <c r="F84" s="13">
+        <v>-8523</v>
       </c>
       <c r="G84" s="13">
-        <v>-8523</v>
+        <v>-4865</v>
       </c>
       <c r="H84" s="13">
-        <v>-4865</v>
+        <v>-10148</v>
       </c>
       <c r="I84" s="13">
-        <v>-10148</v>
+        <v>-22186</v>
       </c>
       <c r="J84" s="13">
-        <v>-22186</v>
+        <v>-22231</v>
       </c>
       <c r="K84" s="13">
-        <v>-22231</v>
+        <v>-4652</v>
       </c>
       <c r="L84" s="13">
-        <v>-4652</v>
+        <v>-17489</v>
       </c>
       <c r="M84" s="13">
-        <v>-17489</v>
+        <v>-22315</v>
       </c>
       <c r="N84" s="13">
-        <v>-22315</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-17442</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>24</v>
       </c>
@@ -3273,37 +3273,37 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="11">
-        <v>1</v>
-      </c>
-      <c r="G85" s="11">
         <v>-1</v>
       </c>
-      <c r="H85" s="11" t="s">
-        <v>18</v>
+      <c r="G85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="11">
+        <v>0</v>
       </c>
       <c r="I85" s="11">
         <v>0</v>
       </c>
       <c r="J85" s="11">
-        <v>0</v>
+        <v>-59564</v>
       </c>
       <c r="K85" s="11">
-        <v>-59564</v>
+        <v>-306416</v>
       </c>
       <c r="L85" s="11">
-        <v>-306416</v>
+        <v>-93743</v>
       </c>
       <c r="M85" s="11">
-        <v>-93743</v>
+        <v>-69658</v>
       </c>
       <c r="N85" s="11">
-        <v>-69658</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-264181</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>25</v>
       </c>
@@ -3314,20 +3314,20 @@
       <c r="E86" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F86" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" s="13">
-        <v>0</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>18</v>
+      <c r="F86" s="13">
+        <v>0</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="13">
+        <v>0</v>
       </c>
       <c r="I86" s="13">
         <v>0</v>
       </c>
-      <c r="J86" s="13">
-        <v>0</v>
+      <c r="J86" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K86" s="13" t="s">
         <v>18</v>
@@ -3342,7 +3342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>26</v>
       </c>
@@ -3359,66 +3359,66 @@
       <c r="G87" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H87" s="11" t="s">
-        <v>18</v>
+      <c r="H87" s="11">
+        <v>-491842</v>
       </c>
       <c r="I87" s="11">
-        <v>-491842</v>
+        <v>-600563</v>
       </c>
       <c r="J87" s="11">
-        <v>-600563</v>
+        <v>35474</v>
       </c>
       <c r="K87" s="11">
-        <v>35474</v>
+        <v>0</v>
       </c>
       <c r="L87" s="11">
-        <v>0</v>
+        <v>-618380</v>
       </c>
       <c r="M87" s="11">
-        <v>-618380</v>
+        <v>-291267</v>
       </c>
       <c r="N87" s="11">
-        <v>-291267</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-340058</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15">
-        <v>-7599933</v>
+        <v>-11350348</v>
       </c>
       <c r="F88" s="15">
-        <v>-11350348</v>
+        <v>-12312441</v>
       </c>
       <c r="G88" s="15">
-        <v>-12312441</v>
+        <v>-9482702</v>
       </c>
       <c r="H88" s="15">
-        <v>-9482702</v>
+        <v>-12362622</v>
       </c>
       <c r="I88" s="15">
-        <v>-12362622</v>
+        <v>-16796406</v>
       </c>
       <c r="J88" s="15">
-        <v>-16796406</v>
+        <v>-24790809</v>
       </c>
       <c r="K88" s="15">
-        <v>-24790809</v>
+        <v>-17817729</v>
       </c>
       <c r="L88" s="15">
-        <v>-17817729</v>
+        <v>-25529340</v>
       </c>
       <c r="M88" s="15">
-        <v>-25529340</v>
+        <v>-19355081</v>
       </c>
       <c r="N88" s="15">
-        <v>-19355081</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-38229551</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>48</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>19</v>
       </c>
@@ -3443,17 +3443,17 @@
         <v>38</v>
       </c>
       <c r="D90" s="11"/>
-      <c r="E90" s="11">
-        <v>0</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>18</v>
+      <c r="E90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="11">
+        <v>0</v>
       </c>
       <c r="G90" s="11">
         <v>0</v>
       </c>
-      <c r="H90" s="11">
-        <v>0</v>
+      <c r="H90" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I90" s="11" t="s">
         <v>18</v>
@@ -3474,7 +3474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>20</v>
       </c>
@@ -3483,74 +3483,74 @@
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13">
-        <v>-1830164</v>
+        <v>-3314620</v>
       </c>
       <c r="F91" s="13">
-        <v>-3314620</v>
+        <v>-2358099</v>
       </c>
       <c r="G91" s="13">
-        <v>-2358099</v>
+        <v>-10504333</v>
       </c>
       <c r="H91" s="13">
-        <v>-10504333</v>
+        <v>-3699120</v>
       </c>
       <c r="I91" s="13">
-        <v>-3699120</v>
+        <v>-3935695</v>
       </c>
       <c r="J91" s="13">
-        <v>-3935695</v>
+        <v>-7968382</v>
       </c>
       <c r="K91" s="13">
-        <v>-7968382</v>
+        <v>-3701891</v>
       </c>
       <c r="L91" s="13">
-        <v>-3701891</v>
+        <v>170203</v>
       </c>
       <c r="M91" s="13">
-        <v>170203</v>
+        <v>-3394241</v>
       </c>
       <c r="N91" s="13">
-        <v>-3394241</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3771545</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
       <c r="E92" s="17">
-        <v>-1830164</v>
+        <v>-3314620</v>
       </c>
       <c r="F92" s="17">
-        <v>-3314620</v>
+        <v>-2358099</v>
       </c>
       <c r="G92" s="17">
-        <v>-2358099</v>
+        <v>-10504333</v>
       </c>
       <c r="H92" s="17">
-        <v>-10504333</v>
+        <v>-3699120</v>
       </c>
       <c r="I92" s="17">
-        <v>-3699120</v>
+        <v>-3935695</v>
       </c>
       <c r="J92" s="17">
-        <v>-3935695</v>
+        <v>-7968382</v>
       </c>
       <c r="K92" s="17">
-        <v>-7968382</v>
+        <v>-3701891</v>
       </c>
       <c r="L92" s="17">
-        <v>-3701891</v>
+        <v>170203</v>
       </c>
       <c r="M92" s="17">
-        <v>170203</v>
+        <v>-3394241</v>
       </c>
       <c r="N92" s="17">
-        <v>-3394241</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3771545</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="18" t="s">
         <v>50</v>
       </c>
@@ -3567,7 +3567,7 @@
       <c r="M93" s="19"/>
       <c r="N93" s="19"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="16" t="s">
         <v>51</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>32</v>
       </c>
@@ -3615,11 +3615,11 @@
       <c r="E95" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F95" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" s="15">
-        <v>0</v>
+      <c r="F95" s="15">
+        <v>0</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H95" s="15" t="s">
         <v>18</v>
@@ -3643,7 +3643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="16" t="s">
         <v>34</v>
       </c>
@@ -3654,20 +3654,20 @@
       <c r="E96" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F96" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" s="17">
-        <v>0</v>
-      </c>
-      <c r="H96" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I96" s="17">
-        <v>0</v>
-      </c>
-      <c r="J96" s="17" t="s">
-        <v>18</v>
+      <c r="F96" s="17">
+        <v>0</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="17">
+        <v>0</v>
+      </c>
+      <c r="I96" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" s="17">
+        <v>0</v>
       </c>
       <c r="K96" s="17">
         <v>0</v>
@@ -3682,44 +3682,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
       <c r="E97" s="15">
-        <v>-9430097</v>
+        <v>-14664968</v>
       </c>
       <c r="F97" s="15">
-        <v>-14664968</v>
+        <v>-14670540</v>
       </c>
       <c r="G97" s="15">
-        <v>-14670540</v>
+        <v>-19987035</v>
       </c>
       <c r="H97" s="15">
-        <v>-19987035</v>
+        <v>-16061742</v>
       </c>
       <c r="I97" s="15">
-        <v>-16061742</v>
+        <v>-20732101</v>
       </c>
       <c r="J97" s="15">
-        <v>-20732101</v>
+        <v>-32759191</v>
       </c>
       <c r="K97" s="15">
-        <v>-32759191</v>
+        <v>-21519620</v>
       </c>
       <c r="L97" s="15">
-        <v>-21519620</v>
+        <v>-25359137</v>
       </c>
       <c r="M97" s="15">
-        <v>-25359137</v>
+        <v>-22749322</v>
       </c>
       <c r="N97" s="15">
-        <v>-22749322</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-42001096</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3734,7 +3734,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3749,7 +3749,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3764,7 +3764,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>52</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3816,7 +3816,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>53</v>
       </c>
@@ -3833,7 +3833,7 @@
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>16</v>
       </c>
@@ -3842,37 +3842,37 @@
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>376</v>
+        <v>45576</v>
       </c>
       <c r="F104" s="11">
-        <v>45576</v>
-      </c>
-      <c r="G104" s="11">
         <v>-35217</v>
       </c>
-      <c r="H104" s="11" t="s">
-        <v>18</v>
+      <c r="G104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="11">
+        <v>741</v>
       </c>
       <c r="I104" s="11">
-        <v>741</v>
+        <v>40475</v>
       </c>
       <c r="J104" s="11">
-        <v>40475</v>
+        <v>274986</v>
       </c>
       <c r="K104" s="11">
-        <v>274986</v>
+        <v>12908</v>
       </c>
       <c r="L104" s="11">
-        <v>12908</v>
+        <v>64795</v>
       </c>
       <c r="M104" s="11">
-        <v>64795</v>
+        <v>-89</v>
       </c>
       <c r="N104" s="11">
-        <v>-89</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>527019</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="12" t="s">
         <v>19</v>
       </c>
@@ -3883,17 +3883,17 @@
       <c r="E105" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F105" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" s="13">
-        <v>0</v>
+      <c r="F105" s="13">
+        <v>0</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="H105" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I105" s="13" t="s">
-        <v>18</v>
+      <c r="I105" s="13">
+        <v>0</v>
       </c>
       <c r="J105" s="13">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>20</v>
       </c>
@@ -3920,37 +3920,37 @@
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
-        <v>1295375</v>
+        <v>4431502</v>
       </c>
       <c r="F106" s="11">
-        <v>4431502</v>
+        <v>1890331</v>
       </c>
       <c r="G106" s="11">
-        <v>1890331</v>
+        <v>1775582</v>
       </c>
       <c r="H106" s="11">
-        <v>1775582</v>
+        <v>2095076</v>
       </c>
       <c r="I106" s="11">
-        <v>2095076</v>
+        <v>1497953</v>
       </c>
       <c r="J106" s="11">
-        <v>1497953</v>
+        <v>1089256</v>
       </c>
       <c r="K106" s="11">
-        <v>1089256</v>
+        <v>1406437</v>
       </c>
       <c r="L106" s="11">
-        <v>1406437</v>
+        <v>2064285</v>
       </c>
       <c r="M106" s="11">
-        <v>2064285</v>
+        <v>2060648</v>
       </c>
       <c r="N106" s="11">
-        <v>2060648</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10773089</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="12" t="s">
         <v>21</v>
       </c>
@@ -3973,8 +3973,8 @@
       <c r="I107" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J107" s="13" t="s">
-        <v>18</v>
+      <c r="J107" s="13">
+        <v>0</v>
       </c>
       <c r="K107" s="13">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>22</v>
       </c>
@@ -3998,37 +3998,37 @@
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
-        <v>1998225</v>
+        <v>3525554</v>
       </c>
       <c r="F108" s="11">
-        <v>3525554</v>
+        <v>1534094</v>
       </c>
       <c r="G108" s="11">
-        <v>1534094</v>
+        <v>1864604</v>
       </c>
       <c r="H108" s="11">
-        <v>1864604</v>
+        <v>2401709</v>
       </c>
       <c r="I108" s="11">
-        <v>2401709</v>
+        <v>2087485</v>
       </c>
       <c r="J108" s="11">
-        <v>2087485</v>
+        <v>482844</v>
       </c>
       <c r="K108" s="11">
-        <v>482844</v>
+        <v>2495758</v>
       </c>
       <c r="L108" s="11">
-        <v>2495758</v>
+        <v>2818097</v>
       </c>
       <c r="M108" s="11">
-        <v>2818097</v>
+        <v>1928661</v>
       </c>
       <c r="N108" s="11">
-        <v>1928661</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3573894</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="12" t="s">
         <v>23</v>
       </c>
@@ -4039,35 +4039,35 @@
       <c r="E109" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F109" s="13" t="s">
-        <v>18</v>
+      <c r="F109" s="13">
+        <v>32300</v>
       </c>
       <c r="G109" s="13">
-        <v>32300</v>
+        <v>39493</v>
       </c>
       <c r="H109" s="13">
-        <v>39493</v>
+        <v>26086</v>
       </c>
       <c r="I109" s="13">
-        <v>26086</v>
+        <v>71576</v>
       </c>
       <c r="J109" s="13">
-        <v>71576</v>
+        <v>10108</v>
       </c>
       <c r="K109" s="13">
-        <v>10108</v>
+        <v>18012</v>
       </c>
       <c r="L109" s="13">
-        <v>18012</v>
+        <v>91533</v>
       </c>
       <c r="M109" s="13">
-        <v>91533</v>
+        <v>88001</v>
       </c>
       <c r="N109" s="13">
-        <v>88001</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>100984</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>24</v>
       </c>
@@ -4081,32 +4081,32 @@
       <c r="F110" s="11">
         <v>0</v>
       </c>
-      <c r="G110" s="11">
-        <v>0</v>
-      </c>
-      <c r="H110" s="11" t="s">
-        <v>18</v>
+      <c r="G110" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" s="11">
+        <v>0</v>
       </c>
       <c r="I110" s="11">
         <v>0</v>
       </c>
       <c r="J110" s="11">
-        <v>0</v>
+        <v>7731</v>
       </c>
       <c r="K110" s="11">
-        <v>7731</v>
+        <v>157414</v>
       </c>
       <c r="L110" s="11">
-        <v>157414</v>
+        <v>39849</v>
       </c>
       <c r="M110" s="11">
-        <v>39849</v>
+        <v>5799</v>
       </c>
       <c r="N110" s="11">
-        <v>5799</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>143316</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>25</v>
       </c>
@@ -4117,20 +4117,20 @@
       <c r="E111" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F111" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" s="13">
-        <v>0</v>
-      </c>
-      <c r="H111" s="13" t="s">
-        <v>18</v>
+      <c r="F111" s="13">
+        <v>0</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="13">
+        <v>0</v>
       </c>
       <c r="I111" s="13">
         <v>0</v>
       </c>
-      <c r="J111" s="13">
-        <v>0</v>
+      <c r="J111" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K111" s="13" t="s">
         <v>18</v>
@@ -4145,7 +4145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>26</v>
       </c>
@@ -4162,66 +4162,66 @@
       <c r="G112" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H112" s="11" t="s">
-        <v>18</v>
+      <c r="H112" s="11">
+        <v>-78931</v>
       </c>
       <c r="I112" s="11">
-        <v>-78931</v>
+        <v>-195988</v>
       </c>
       <c r="J112" s="11">
-        <v>-195988</v>
+        <v>36361</v>
       </c>
       <c r="K112" s="11">
-        <v>36361</v>
+        <v>0</v>
       </c>
       <c r="L112" s="11">
-        <v>0</v>
+        <v>-173202</v>
       </c>
       <c r="M112" s="11">
-        <v>-173202</v>
+        <v>-64460</v>
       </c>
       <c r="N112" s="11">
-        <v>-64460</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-19900</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15">
-        <v>3293976</v>
+        <v>8002632</v>
       </c>
       <c r="F113" s="15">
-        <v>8002632</v>
+        <v>3421508</v>
       </c>
       <c r="G113" s="15">
-        <v>3421508</v>
+        <v>3679679</v>
       </c>
       <c r="H113" s="15">
-        <v>3679679</v>
+        <v>4444681</v>
       </c>
       <c r="I113" s="15">
-        <v>4444681</v>
+        <v>3501501</v>
       </c>
       <c r="J113" s="15">
-        <v>3501501</v>
+        <v>1901286</v>
       </c>
       <c r="K113" s="15">
-        <v>1901286</v>
+        <v>4090529</v>
       </c>
       <c r="L113" s="15">
-        <v>4090529</v>
+        <v>4905357</v>
       </c>
       <c r="M113" s="15">
-        <v>4905357</v>
+        <v>4018560</v>
       </c>
       <c r="N113" s="15">
-        <v>4018560</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15098402</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>55</v>
       </c>
@@ -4238,7 +4238,7 @@
       <c r="M114" s="9"/>
       <c r="N114" s="9"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>19</v>
       </c>
@@ -4246,17 +4246,17 @@
         <v>38</v>
       </c>
       <c r="D115" s="11"/>
-      <c r="E115" s="11">
-        <v>0</v>
-      </c>
-      <c r="F115" s="11" t="s">
-        <v>18</v>
+      <c r="E115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="11">
+        <v>0</v>
       </c>
       <c r="G115" s="11">
         <v>0</v>
       </c>
-      <c r="H115" s="11">
-        <v>0</v>
+      <c r="H115" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I115" s="11" t="s">
         <v>18</v>
@@ -4277,7 +4277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="12" t="s">
         <v>20</v>
       </c>
@@ -4286,74 +4286,74 @@
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="13">
-        <v>2004621</v>
+        <v>2913509</v>
       </c>
       <c r="F116" s="13">
-        <v>2913509</v>
+        <v>1199085</v>
       </c>
       <c r="G116" s="13">
-        <v>1199085</v>
+        <v>4456447</v>
       </c>
       <c r="H116" s="13">
-        <v>4456447</v>
+        <v>592130</v>
       </c>
       <c r="I116" s="13">
-        <v>592130</v>
+        <v>384473</v>
       </c>
       <c r="J116" s="13">
-        <v>384473</v>
+        <v>-17573</v>
       </c>
       <c r="K116" s="13">
-        <v>-17573</v>
+        <v>457912</v>
       </c>
       <c r="L116" s="13">
-        <v>457912</v>
+        <v>170203</v>
       </c>
       <c r="M116" s="13">
-        <v>170203</v>
+        <v>853723</v>
       </c>
       <c r="N116" s="13">
-        <v>853723</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>489540</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
       <c r="E117" s="17">
-        <v>2004621</v>
+        <v>2913509</v>
       </c>
       <c r="F117" s="17">
-        <v>2913509</v>
+        <v>1199085</v>
       </c>
       <c r="G117" s="17">
-        <v>1199085</v>
+        <v>4456447</v>
       </c>
       <c r="H117" s="17">
-        <v>4456447</v>
+        <v>592130</v>
       </c>
       <c r="I117" s="17">
-        <v>592130</v>
+        <v>384473</v>
       </c>
       <c r="J117" s="17">
-        <v>384473</v>
+        <v>-17573</v>
       </c>
       <c r="K117" s="17">
-        <v>-17573</v>
+        <v>457912</v>
       </c>
       <c r="L117" s="17">
-        <v>457912</v>
+        <v>170203</v>
       </c>
       <c r="M117" s="17">
-        <v>170203</v>
+        <v>853723</v>
       </c>
       <c r="N117" s="17">
-        <v>853723</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+        <v>489540</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="18" t="s">
         <v>57</v>
       </c>
@@ -4370,7 +4370,7 @@
       <c r="M118" s="19"/>
       <c r="N118" s="19"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="16" t="s">
         <v>58</v>
       </c>
@@ -4407,41 +4407,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C120" s="15"/>
       <c r="D120" s="15"/>
       <c r="E120" s="15">
-        <v>5298597</v>
+        <v>10916141</v>
       </c>
       <c r="F120" s="15">
-        <v>10916141</v>
+        <v>4620593</v>
       </c>
       <c r="G120" s="15">
-        <v>4620593</v>
+        <v>8136126</v>
       </c>
       <c r="H120" s="15">
-        <v>8136126</v>
+        <v>5036811</v>
       </c>
       <c r="I120" s="15">
-        <v>5036811</v>
+        <v>3885974</v>
       </c>
       <c r="J120" s="15">
-        <v>3885974</v>
+        <v>1883713</v>
       </c>
       <c r="K120" s="15">
-        <v>1883713</v>
+        <v>4548441</v>
       </c>
       <c r="L120" s="15">
-        <v>4548441</v>
+        <v>5075560</v>
       </c>
       <c r="M120" s="15">
-        <v>5075560</v>
+        <v>4872283</v>
       </c>
       <c r="N120" s="15">
-        <v>4872283</v>
+        <v>15587942</v>
       </c>
     </row>
   </sheetData>
